--- a/GameMasterGuide/Encounters/Encounters.xlsx
+++ b/GameMasterGuide/Encounters/Encounters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -111,6 +111,39 @@
   </si>
   <si>
     <t xml:space="preserve">Phlogiston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoopy Episode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super special spoopy episode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undead Wolf 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spraying Mantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astronomy Snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living Book</t>
   </si>
 </sst>
 </file>
@@ -125,6 +158,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -146,6 +180,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,10 +259,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ5" activeCellId="0" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -235,7 +270,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
@@ -381,6 +416,83 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
